--- a/NURETH/Analytical_Solution.xlsx
+++ b/NURETH/Analytical_Solution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="15220" tabRatio="552" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="15220" tabRatio="708" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Problem_Setup" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,6 @@
     <definedName name="vol_fuel">Problem_Setup!$D$17</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -461,9 +460,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>Original Semi-implic</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -522,6 +518,9 @@
   </si>
   <si>
     <t>Radial Nodes in Fuel</t>
+  </si>
+  <si>
+    <t>Original Semi-implicit</t>
   </si>
 </sst>
 </file>
@@ -637,12 +636,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,11 +697,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1101,11 +1100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082025800"/>
-        <c:axId val="2082002616"/>
+        <c:axId val="2068039480"/>
+        <c:axId val="2091943752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082025800"/>
+        <c:axId val="2068039480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,12 +1121,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082002616"/>
+        <c:crossAx val="2091943752"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082002616"/>
+        <c:axId val="2091943752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1152,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082025800"/>
+        <c:crossAx val="2068039480"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1168,6 +1167,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2063,11 +2063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081724008"/>
-        <c:axId val="2081718216"/>
+        <c:axId val="2094326232"/>
+        <c:axId val="2094332024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081724008"/>
+        <c:axId val="2094326232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2105,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081718216"/>
+        <c:crossAx val="2094332024"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081718216"/>
+        <c:axId val="2094332024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,7 +2157,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081724008"/>
+        <c:crossAx val="2094326232"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,11 +2549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081673688"/>
-        <c:axId val="2081670360"/>
+        <c:axId val="2094513688"/>
+        <c:axId val="2094517000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081673688"/>
+        <c:axId val="2094513688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,12 +2570,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081670360"/>
+        <c:crossAx val="2094517000"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081670360"/>
+        <c:axId val="2094517000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2601,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081673688"/>
+        <c:crossAx val="2094513688"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3239,11 +3239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081630584"/>
-        <c:axId val="2081624840"/>
+        <c:axId val="2060526760"/>
+        <c:axId val="2060532360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081630584"/>
+        <c:axId val="2060526760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,12 +3281,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081624840"/>
+        <c:crossAx val="2060532360"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081624840"/>
+        <c:axId val="2060532360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3333,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081630584"/>
+        <c:crossAx val="2060526760"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4243,11 +4243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081575320"/>
-        <c:axId val="2081569528"/>
+        <c:axId val="2090654184"/>
+        <c:axId val="2090833256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081575320"/>
+        <c:axId val="2090654184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,12 +4284,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081569528"/>
+        <c:crossAx val="2090833256"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081569528"/>
+        <c:axId val="2090833256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4335,7 +4335,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081575320"/>
+        <c:crossAx val="2090654184"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4629,11 +4629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081537784"/>
-        <c:axId val="2081534440"/>
+        <c:axId val="2095386040"/>
+        <c:axId val="2095389352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081537784"/>
+        <c:axId val="2095386040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,12 +4650,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081534440"/>
+        <c:crossAx val="2095389352"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081534440"/>
+        <c:axId val="2095389352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,7 +4681,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081537784"/>
+        <c:crossAx val="2095386040"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4944,11 +4944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081478840"/>
-        <c:axId val="2081475352"/>
+        <c:axId val="2060747032"/>
+        <c:axId val="2092763000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081478840"/>
+        <c:axId val="2060747032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,12 +4965,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081475352"/>
+        <c:crossAx val="2092763000"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081475352"/>
+        <c:axId val="2092763000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4996,7 +4996,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081478840"/>
+        <c:crossAx val="2060747032"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5305,11 +5305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081433768"/>
-        <c:axId val="2081430296"/>
+        <c:axId val="2092151928"/>
+        <c:axId val="2092155320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081433768"/>
+        <c:axId val="2092151928"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5327,12 +5327,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081430296"/>
+        <c:crossAx val="2092155320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081430296"/>
+        <c:axId val="2092155320"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5359,7 +5359,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081433768"/>
+        <c:crossAx val="2092151928"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5668,11 +5668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084026360"/>
-        <c:axId val="2084029832"/>
+        <c:axId val="2093407144"/>
+        <c:axId val="2093410472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084026360"/>
+        <c:axId val="2093407144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5690,12 +5690,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2084029832"/>
+        <c:crossAx val="2093410472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084029832"/>
+        <c:axId val="2093410472"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5723,7 +5723,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2084026360"/>
+        <c:crossAx val="2093407144"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5861,11 +5861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084056072"/>
-        <c:axId val="2084059128"/>
+        <c:axId val="2090827944"/>
+        <c:axId val="2090674312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084056072"/>
+        <c:axId val="2090827944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,12 +5882,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2084059128"/>
+        <c:crossAx val="2090674312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084059128"/>
+        <c:axId val="2090674312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5913,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2084056072"/>
+        <c:crossAx val="2090827944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5974,7 +5974,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="1">
+              <a:rPr lang="en-US" sz="1300" b="1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Temperature Profile</a:t>
@@ -5982,6 +5982,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6274,11 +6275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082294344"/>
-        <c:axId val="2082300088"/>
+        <c:axId val="2092316312"/>
+        <c:axId val="2093460120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082294344"/>
+        <c:axId val="2092316312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6294,7 +6295,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Radius [cm]</a:t>
@@ -6302,6 +6303,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6315,12 +6317,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082300088"/>
+        <c:crossAx val="2093460120"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082300088"/>
+        <c:axId val="2093460120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,7 +6347,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temperature [C]</a:t>
@@ -6353,6 +6355,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6366,7 +6369,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082294344"/>
+        <c:crossAx val="2092316312"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6381,6 +6384,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6426,7 +6430,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="1">
+              <a:rPr lang="en-US" sz="1300" b="1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Relative Temperature Difference</a:t>
@@ -6434,6 +6438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6817,11 +6822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082346152"/>
-        <c:axId val="2082351944"/>
+        <c:axId val="2089919432"/>
+        <c:axId val="2089903784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082346152"/>
+        <c:axId val="2089919432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,7 +6842,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Radius [cm]</a:t>
@@ -6845,6 +6850,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6858,12 +6864,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082351944"/>
+        <c:crossAx val="2089903784"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082351944"/>
+        <c:axId val="2089903784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,7 +6894,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="1">
+                  <a:rPr lang="en-US" sz="900" b="1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temperature [C]</a:t>
@@ -6896,6 +6902,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6909,7 +6916,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082346152"/>
+        <c:crossAx val="2089919432"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6924,6 +6931,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7185,11 +7193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082382248"/>
-        <c:axId val="2082385496"/>
+        <c:axId val="2089838680"/>
+        <c:axId val="2090484072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082382248"/>
+        <c:axId val="2089838680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7206,12 +7214,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082385496"/>
+        <c:crossAx val="2090484072"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082385496"/>
+        <c:axId val="2090484072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7237,7 +7245,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082382248"/>
+        <c:crossAx val="2089838680"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7252,6 +7260,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7759,11 +7768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082432760"/>
-        <c:axId val="2082436072"/>
+        <c:axId val="2061373240"/>
+        <c:axId val="2037850136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082432760"/>
+        <c:axId val="2061373240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7780,12 +7789,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082436072"/>
+        <c:crossAx val="2037850136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082436072"/>
+        <c:axId val="2037850136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7811,7 +7820,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082432760"/>
+        <c:crossAx val="2061373240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7826,6 +7835,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8193,11 +8203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082195192"/>
-        <c:axId val="2082198440"/>
+        <c:axId val="2092102136"/>
+        <c:axId val="2092105448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082195192"/>
+        <c:axId val="2092102136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8214,12 +8224,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082198440"/>
+        <c:crossAx val="2092105448"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082198440"/>
+        <c:axId val="2092105448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.002"/>
@@ -8246,7 +8256,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082195192"/>
+        <c:crossAx val="2092102136"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8698,11 +8708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082454360"/>
-        <c:axId val="2082270520"/>
+        <c:axId val="2060498952"/>
+        <c:axId val="2060472136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082454360"/>
+        <c:axId val="2060498952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8740,12 +8750,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082270520"/>
+        <c:crossAx val="2060472136"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082270520"/>
+        <c:axId val="2060472136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8792,7 +8802,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2082454360"/>
+        <c:crossAx val="2060498952"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9498,11 +9508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081840088"/>
-        <c:axId val="2081834296"/>
+        <c:axId val="2090541048"/>
+        <c:axId val="2092820872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081840088"/>
+        <c:axId val="2090541048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,12 +9550,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081834296"/>
+        <c:crossAx val="2092820872"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081834296"/>
+        <c:axId val="2092820872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9592,7 +9602,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081840088"/>
+        <c:crossAx val="2090541048"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9866,11 +9876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081803560"/>
-        <c:axId val="2081800232"/>
+        <c:axId val="2090602008"/>
+        <c:axId val="2090605304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081803560"/>
+        <c:axId val="2090602008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9887,12 +9897,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081800232"/>
+        <c:crossAx val="2090605304"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081800232"/>
+        <c:axId val="2090605304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9918,7 +9928,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2081803560"/>
+        <c:crossAx val="2090602008"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9933,7 +9943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10003,7 +10012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>720000</xdr:colOff>
+      <xdr:colOff>669200</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
@@ -10032,8 +10041,8 @@
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82080</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>674746</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
@@ -10063,7 +10072,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>699840</xdr:colOff>
+      <xdr:colOff>674440</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
@@ -10092,8 +10101,8 @@
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83453</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
@@ -10408,7 +10417,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>177481</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
@@ -10432,15 +10441,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>398453</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>986498</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:colOff>901831</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>11519</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10497,8 +10506,8 @@
       <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>614520</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304075</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>150380</xdr:rowOff>
     </xdr:to>
@@ -10852,173 +10861,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="5" width="8.83203125" style="3"/>
+    <col min="3" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:14">
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="G1" s="4"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="3:14">
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="G2" s="4"/>
-      <c r="L2" s="3">
+      <c r="G2" s="2"/>
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:14">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:14">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4"/>
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>5.3770697959999998</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="13">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
       <c r="E5"/>
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>14.83</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>1.05505585262</v>
       </c>
     </row>
     <row r="6" spans="3:14">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3.6579999999999999</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>10970.404570000001</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f>12*0.0254</f>
         <v>0.30479999999999996</v>
       </c>
     </row>
     <row r="7" spans="3:14">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <f>Problem_Setup!D6/Problem_Setup!D5</f>
         <v>0.18290000000000001</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>8470.57</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="8" spans="3:14">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <f>0.475</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>0.28894779599999998</v>
       </c>
       <c r="I8" t="s">
@@ -11036,20 +11045,20 @@
       </c>
     </row>
     <row r="9" spans="3:14">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f>0.8192/2</f>
         <v>0.40960000000000002</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>0.43099999999999999</v>
       </c>
       <c r="I9" t="s">
@@ -11067,103 +11076,103 @@
       </c>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f>0.057</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>5678.3</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="3:14">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <f>(D8-D9)-D10</f>
         <v>8.3999999999999561E-3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:14">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1.26</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:14">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f>(2*PI()*'SS Rod Radial Profile_10'!O14/100*Problem_Setup!D7)</f>
         <v>5.4586743152449328E-3</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="3:14">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f>(D12^2-(PI()*D8^2))*10^-4</f>
         <v>8.7877815753380304E-5</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f>2*PI()*D8/100</f>
         <v>2.9845130209103034E-2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>0.31110354838709697</v>
       </c>
       <c r="I16" t="s">
@@ -11171,20 +11180,20 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f>A_surf*L_chan</f>
         <v>1.9967830645165965E-2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>3.8641217872042999E-2</v>
       </c>
       <c r="I17" t="s">
@@ -11192,20 +11201,20 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <f>vol_fuel*Rho_fuel</f>
         <v>219.05518056271475</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <f>Problem_Setup!D6/(2*'SS Rod Radial Profile_10'!O14/100)</f>
         <v>385.05263157894831</v>
       </c>
@@ -11220,7 +11229,7 @@
       <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>738.52997840246906</v>
       </c>
     </row>
@@ -11231,7 +11240,7 @@
       <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="13">
         <v>449606.21216661902</v>
       </c>
       <c r="J20" t="s">
@@ -11245,7 +11254,7 @@
       <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>0.91397880732911596</v>
       </c>
       <c r="J21" t="s">
@@ -11253,7 +11262,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D22"/>
@@ -11261,7 +11270,7 @@
       <c r="G22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>1.65522355798267</v>
       </c>
       <c r="I22" t="s">
@@ -11276,19 +11285,19 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="13">
         <f>Problem_Setup!H22*3600*t_htc</f>
         <v>33835.662902305558</v>
       </c>
@@ -11304,20 +11313,20 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <f>Problem_Setup!D23*Problem_Setup!D6</f>
         <v>14.632</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f>Problem_Setup!D24*1000/(Problem_Setup!H23*A_surf*Problem_Setup!D5)</f>
         <v>3.961063674805323</v>
       </c>
@@ -11333,14 +11342,14 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f>Problem_Setup!D24/(L_chan*PI()*((Problem_Setup!D9/100)^2))</f>
         <v>75890.990777919462</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11352,14 +11361,14 @@
       <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <f>Problem_Setup!D24/A_surf</f>
         <v>2680.5043047056115</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -11374,7 +11383,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11397,7 +11406,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D29"/>
@@ -11414,13 +11423,13 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>0.3</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G30" t="s">
@@ -11435,38 +11444,38 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>16.5</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>290</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1283.8</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G33" t="s">
@@ -11481,13 +11490,13 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>5.2188999999999997</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G34" t="s">
@@ -11502,13 +11511,13 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>0.58213000000000004</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G35" t="s">
@@ -11523,65 +11532,65 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>9.2744999999999994E-5</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <f>(D34+D38)/2</f>
         <v>5.3213499999999998</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <f>D32+D24/(B37*M_dot)</f>
         <v>299.1655939438927</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>5.4238</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>0.58213000000000004</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11608,162 +11617,165 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="18"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="18"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:29">
       <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>D8</f>
         <v>2.11162829960637E-3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>E8</f>
         <v>4.7217444211321404E-3</v>
       </c>
@@ -11787,143 +11799,143 @@
         <f>J8-I8</f>
         <v>1.8700787401573996E-3</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>2.11162829960637E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>4.7217444211321404E-3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>7.6135841089516104E-3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>1.05581414980319E-2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>1.3438320209973801E-2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>1.3713910761154901E-2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>1.55839895013123E-2</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <f>(t_in+q_lin*dz*2/(M_dot*cp_in))*9/5+32</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f>1/3*(4*D9-E9)</f>
         <v>726.27136900000005</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>723.205422</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>714.00758099999996</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>693.62628400000006</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>662.49682499999994</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>621.89801699999998</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>572.63108999999997</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>562.76726199999996</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <f>K8</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>1/3*(4*D10-E10)</f>
         <v>726.2282889999999</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>723.16333999999995</v>
       </c>
       <c r="E10">
@@ -11944,128 +11956,128 @@
       <c r="J10">
         <v>562.76534000000004</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <f>K11</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="16" t="e">
+      <c r="N10" s="14" t="e">
         <f>(N9-#REF!)*t_btu_kw/t_lbm_kg*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="16" t="e">
+      <c r="O10" s="14" t="e">
         <f>(O9-#REF!)*t_btu_kw/t_lbm_kg*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="P10" s="16" t="e">
+      <c r="P10" s="14" t="e">
         <f>(P9-#REF!)*t_btu_kw/t_lbm_kg*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="16" t="e">
+      <c r="Q10" s="14" t="e">
         <f>(Q9-#REF!)*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="16" t="e">
+      <c r="R10" s="14" t="e">
         <f>(R9-#REF!)*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="S10" s="16" t="e">
+      <c r="S10" s="14" t="e">
         <f>(S9-#REF!)*M_dot/L_chan</f>
         <v>#REF!</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="14">
         <f>T9*M_dot/L_chan</f>
         <v>0</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <f>U9*M_dot/L_chan</f>
         <v>0</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <f>V9*M_dot/L_chan</f>
         <v>0</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="14">
         <f>W9/L_chan</f>
         <v>0</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="14">
         <f>X9/L_chan</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="14">
         <f>Y9/L_chan</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f>1/3*(4*D11-E11)</f>
         <v>726.28021666666666</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>723.21406500000001</v>
       </c>
       <c r="E11">
         <v>714.01561000000004</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>693.63302299999998</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>662.50178600000004</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>621.90099299999997</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>572.63192500000002</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>562.76765699999999</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <f>K9</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f>1/3*(4*D12-E12)</f>
         <v>724.9045146666665</v>
       </c>
@@ -12090,30 +12102,30 @@
       <c r="J12">
         <v>562.76766099999998</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <f>K10</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="K13" t="e">
@@ -12122,38 +12134,38 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" ref="C14:J14" si="0">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>6.4362430572002152E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0.14391876995610761</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>0.23206204364084504</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0.3218121528600123</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>0.40960000000000135</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>0.41800000000000137</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0.47499999999999887</v>
       </c>
@@ -12162,152 +12174,152 @@
       <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f>q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(C14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f>q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(D14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>90.59529198842381</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f>q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(E14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>84.748610683740409</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f>q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(F14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>73.055248074373637</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f>q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(G14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>55.515204160323172</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f>delta_gap+delta_clad</f>
         <v>32.859314104675335</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f>delta_clad</f>
         <v>5.4876097013893084</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <f>-delta_fluid</f>
         <v>-3.961063674805323</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f t="shared" ref="C16:K16" si="1">(C9-$J9)*t_R_K</f>
         <v>90.835615000000061</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>89.132311111111136</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>84.022399444444446</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>72.69945666666672</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>55.405312777777773</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>32.850419444444455</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>5.4799044444444514</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f t="shared" si="1"/>
         <v>-3.9361491301699898</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <f t="shared" ref="M16:U19" si="2">C16-C$15</f>
         <v>-1.2213473145945954</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <f t="shared" si="2"/>
         <v>-1.462980877312674</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7">
         <f t="shared" si="2"/>
         <v>-0.72621123929596365</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <f t="shared" si="2"/>
         <v>-0.35579140770691708</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <f t="shared" si="2"/>
         <v>-0.1098913825453991</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="7">
         <f t="shared" si="2"/>
         <v>-8.8946602308794809E-3</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <f t="shared" si="2"/>
         <v>-7.7052569448570196E-3</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="7">
         <f t="shared" si="2"/>
         <v>2.4914544635333158E-2</v>
       </c>
-      <c r="V16" s="9" t="e">
+      <c r="V16" s="7" t="e">
         <f t="shared" ref="V16:Y19" si="3">L17-L$16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="7">
         <f t="shared" si="3"/>
         <v>-2.2865555555682704E-2</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="7">
         <f t="shared" si="3"/>
         <v>-2.2311111111179116E-2</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="7">
         <f t="shared" si="3"/>
         <v>-2.0647777777810461E-2</v>
       </c>
@@ -12316,97 +12328,97 @@
       <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <f t="shared" ref="C17:K17" si="4">(C10-$J10)*t_R_K</f>
         <v>90.812749444444378</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="4"/>
         <v>89.109999999999957</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="4"/>
         <v>84.001751666666635</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>72.682298333333321</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="4"/>
         <v>55.392961111111092</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
         <v>32.843437777777737</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>5.4787155555555325</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>-3.9350813523922552</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <f t="shared" si="2"/>
         <v>-1.2442128701502781</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <f t="shared" si="2"/>
         <v>-1.4852919884238531</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <f t="shared" si="2"/>
         <v>-0.74685901707377411</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <f t="shared" si="2"/>
         <v>-0.37294974104031553</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <f t="shared" si="2"/>
         <v>-0.12224304921208073</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="7">
         <f t="shared" si="2"/>
         <v>-1.5876326897597437E-2</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <f t="shared" si="2"/>
         <v>-8.8941458337759016E-3</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="7">
         <f t="shared" si="2"/>
         <v>2.5982322413067749E-2</v>
       </c>
-      <c r="V17" s="9" t="e">
+      <c r="V17" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="7">
         <f t="shared" si="3"/>
         <v>4.695925925872757E-3</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="7">
         <f t="shared" si="3"/>
         <v>4.5822222222113851E-3</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="7">
         <f t="shared" si="3"/>
         <v>4.2411111111420041E-3</v>
       </c>
@@ -12415,97 +12427,97 @@
       <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:K18" si="5">(C11-$J11)*t_R_K</f>
         <v>90.840310925925934</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f t="shared" si="5"/>
         <v>89.136893333333347</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>84.026640555555588</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
         <v>72.702981111111114</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>55.407849444444473</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
         <v>32.851853333333324</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="5"/>
         <v>5.4801488888889107</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
         <v>-3.9363685746144483</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="7">
         <f t="shared" si="2"/>
         <v>-1.2166513886687227</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="7">
         <f t="shared" si="2"/>
         <v>-1.4583986550904626</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="7">
         <f t="shared" si="2"/>
         <v>-0.72197012818482165</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="7">
         <f t="shared" si="2"/>
         <v>-0.35226696326252238</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="7">
         <f t="shared" si="2"/>
         <v>-0.10735471587869938</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="7">
         <f t="shared" si="2"/>
         <v>-7.4607713420107302E-3</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <f t="shared" si="2"/>
         <v>-7.4608125003976511E-3</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="7">
         <f t="shared" si="2"/>
         <v>2.4695100190874619E-2</v>
       </c>
-      <c r="V18" s="9" t="e">
+      <c r="V18" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="7">
         <f t="shared" si="3"/>
         <v>-0.75958518518531548</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="7">
         <f t="shared" si="3"/>
         <v>-0.62461333333335745</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="7">
         <f t="shared" si="3"/>
         <v>-0.21969777777775334</v>
       </c>
@@ -12514,307 +12526,307 @@
       <c r="A19" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f t="shared" ref="C19:K19" si="6">(C12-$J12)*t_R_K</f>
         <v>90.076029814814746</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="6"/>
         <v>88.507697777777778</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="6"/>
         <v>83.802701666666692</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f t="shared" si="6"/>
         <v>72.629414444444436</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="6"/>
         <v>55.424342777777788</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
         <v>32.859314444444486</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="6"/>
         <v>5.4876100000000054</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f t="shared" si="6"/>
         <v>-3.9363707968366652</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <f t="shared" si="2"/>
         <v>-1.9809324997799109</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="7">
         <f t="shared" si="2"/>
         <v>-2.0875942106460315</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="7">
         <f t="shared" si="2"/>
         <v>-0.945909017073717</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="7">
         <f t="shared" si="2"/>
         <v>-0.42583362992920115</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="7">
         <f t="shared" si="2"/>
         <v>-9.0861382545384117E-2</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="7">
         <f t="shared" si="2"/>
         <v>3.3976915148059561E-7</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
         <f t="shared" si="2"/>
         <v>2.986106970581659E-7</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="7">
         <f t="shared" si="2"/>
         <v>2.4692877968657712E-2</v>
       </c>
-      <c r="V19" s="9" t="e">
+      <c r="V19" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="7">
         <f t="shared" si="3"/>
         <v>1.2213473145945954</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="7">
         <f t="shared" si="3"/>
         <v>1.462980877312674</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="7">
         <f t="shared" si="3"/>
         <v>0.72621123929596365</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" ref="C22:J22" si="7">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="7"/>
         <v>6.4362430572002152E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="7"/>
         <v>0.14391876995610761</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="7"/>
         <v>0.23206204364084504</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" si="7"/>
         <v>0.3218121528600123</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" si="7"/>
         <v>0.40960000000000135</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="7"/>
         <v>0.41800000000000137</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="8">
         <f t="shared" si="7"/>
         <v>0.47499999999999887</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f t="shared" ref="C23:J27" si="8">C15+$K23-$K15</f>
         <v>386.95257797034111</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f t="shared" si="8"/>
         <v>385.49090764417025</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f t="shared" si="8"/>
         <v>379.64422633948686</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <f t="shared" si="8"/>
         <v>367.95086373012009</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <f t="shared" si="8"/>
         <v>350.41081981606959</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <f t="shared" si="8"/>
         <v>327.75492976042176</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="8"/>
         <v>300.38322535713576</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <f t="shared" si="8"/>
         <v>294.89561565574644</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <f>5/9*(K8-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="5" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f t="shared" si="8"/>
         <v>385.70631611111122</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="8"/>
         <v>384.00301222222225</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="8"/>
         <v>378.89310055555558</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f t="shared" si="8"/>
         <v>367.57015777777787</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f t="shared" si="8"/>
         <v>350.27601388888894</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="8"/>
         <v>327.72112055555561</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="8"/>
         <v>300.3506055555556</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="8"/>
         <v>294.87070111111115</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f>5/9*(K9-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <f t="shared" ref="M24:Y27" si="9">(C24-C$23)/C$23</f>
         <v>-3.2207095395689863E-3</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <f t="shared" si="9"/>
         <v>-3.8597419353958084E-3</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="20">
         <f t="shared" si="9"/>
         <v>-1.978499162686098E-3</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="20">
         <f t="shared" si="9"/>
         <v>-1.0346651954633288E-3</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="20">
         <f t="shared" si="9"/>
         <v>-3.8470823261510615E-4</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <f t="shared" si="9"/>
         <v>-1.0315391713820619E-4</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <f t="shared" si="9"/>
         <v>-1.0859395208028337E-4</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <f t="shared" si="9"/>
         <v>-8.448597847035704E-5</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V24" s="22" t="e">
+      <c r="V24" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W24" s="22" t="e">
+      <c r="W24" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X24" s="22" t="e">
+      <c r="X24" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y24" s="22" t="e">
+      <c r="Y24" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -12823,97 +12835,97 @@
       <c r="A25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <f t="shared" si="8"/>
         <v>385.68238277777778</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <f t="shared" si="8"/>
         <v>383.97963333333337</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="8"/>
         <v>378.87138500000003</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f t="shared" si="8"/>
         <v>367.55193166666675</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <f t="shared" si="8"/>
         <v>350.26259444444452</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="8"/>
         <v>327.71307111111116</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="8"/>
         <v>300.34834888888895</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="8"/>
         <v>294.86963333333341</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f>5/9*(K10-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <f t="shared" si="9"/>
         <v>-3.2825603572040093E-3</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <f t="shared" si="9"/>
         <v>-3.920388991980773E-3</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="20">
         <f t="shared" si="9"/>
         <v>-2.0356989145825653E-3</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25" s="20">
         <f t="shared" si="9"/>
         <v>-1.0841992852228981E-3</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="20">
         <f t="shared" si="9"/>
         <v>-4.2300455135168852E-4</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <f t="shared" si="9"/>
         <v>-1.2771325618563542E-4</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="20">
         <f t="shared" si="9"/>
         <v>-1.1610657754054484E-4</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <f t="shared" si="9"/>
         <v>-8.810684538409606E-5</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V25" s="22" t="e">
+      <c r="V25" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W25" s="22" t="e">
+      <c r="W25" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X25" s="22" t="e">
+      <c r="X25" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y25" s="22" t="e">
+      <c r="Y25" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -12922,97 +12934,97 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <f t="shared" si="8"/>
         <v>385.71123148148149</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <f t="shared" si="8"/>
         <v>384.0078138888889</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <f t="shared" si="8"/>
         <v>378.89756111111114</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <f t="shared" si="8"/>
         <v>367.5739016666667</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <f t="shared" si="8"/>
         <v>350.27877000000007</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" si="8"/>
         <v>327.72277388888892</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <f t="shared" si="8"/>
         <v>300.35106944444448</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <f t="shared" si="8"/>
         <v>294.87092055555559</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <f>5/9*(K11-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="20">
         <f t="shared" si="9"/>
         <v>-3.2080067675754453E-3</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <f t="shared" si="9"/>
         <v>-3.847285956353409E-3</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="20">
         <f t="shared" si="9"/>
         <v>-1.9667498583477278E-3</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="20">
         <f t="shared" si="9"/>
         <v>-1.0244902257652536E-3</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="20">
         <f t="shared" si="9"/>
         <v>-3.7684286158412008E-4</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <f t="shared" si="9"/>
         <v>-9.8109497716301013E-5</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="20">
         <f t="shared" si="9"/>
         <v>-1.0704962853051802E-4</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="20">
         <f t="shared" si="9"/>
         <v>-8.3741835686301338E-5</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V26" s="22" t="e">
+      <c r="V26" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W26" s="22" t="e">
+      <c r="W26" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X26" s="22" t="e">
+      <c r="X26" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y26" s="22" t="e">
+      <c r="Y26" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -13021,157 +13033,157 @@
       <c r="A27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <f t="shared" si="8"/>
         <v>384.9469525925926</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f t="shared" si="8"/>
         <v>383.37862055555559</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <f t="shared" si="8"/>
         <v>378.6736244444445</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <f t="shared" si="8"/>
         <v>367.50033722222224</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <f t="shared" si="8"/>
         <v>350.2952655555556</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <f t="shared" si="8"/>
         <v>327.73023722222229</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <f t="shared" si="8"/>
         <v>300.35853277777784</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <f t="shared" si="8"/>
         <v>294.87092277777782</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f>5/9*(K12-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="20">
         <f t="shared" si="9"/>
         <v>-5.183129644124612E-3</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="20">
         <f t="shared" si="9"/>
         <v>-5.4794731775215403E-3</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="20">
         <f t="shared" si="9"/>
         <v>-2.5566091295549662E-3</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="20">
         <f t="shared" si="9"/>
         <v>-1.2244203025659824E-3</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="20">
         <f t="shared" si="9"/>
         <v>-3.2976795800609949E-4</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
         <f t="shared" si="9"/>
         <v>-7.533841891416768E-5</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="20">
         <f t="shared" si="9"/>
         <v>-8.2203589526546231E-5</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="20">
         <f t="shared" si="9"/>
         <v>-8.3734300063126278E-5</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V27" s="22" t="e">
+      <c r="V27" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W27" s="22" t="e">
+      <c r="W27" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X27" s="22" t="e">
+      <c r="X27" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y27" s="22" t="e">
+      <c r="Y27" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="Q28" s="3"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="20">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="18">
         <v>723.205422</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>714.00758099999996</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>693.62628400000006</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>662.49682499999994</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>621.89801699999998</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>572.63108999999997</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>562.76726199999996</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="7"/>
-      <c r="D33" s="21">
+      <c r="A33" s="5"/>
+      <c r="D33" s="19">
         <v>723.16333999999995</v>
       </c>
       <c r="E33">
@@ -13194,25 +13206,25 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>723.21406500000001</v>
       </c>
       <c r="E34">
         <v>714.01561000000004</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="10">
         <v>693.63302299999998</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>662.50178600000004</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="10">
         <v>621.90099299999997</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <v>572.63192500000002</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="10">
         <v>562.76765699999999</v>
       </c>
     </row>
@@ -13268,71 +13280,71 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13340,11 +13352,11 @@
       <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>D8</f>
         <v>1.0002449840240701E-3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>E8</f>
         <v>2.2366157784310101E-3</v>
       </c>
@@ -13388,7 +13400,7 @@
         <f t="shared" si="0"/>
         <v>1.8700787401573996E-3</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <f>(t_in+q_lin*dz*2/(M_dot*cp_in))*9/5+32</f>
         <v>555.68219356569398</v>
       </c>
@@ -13397,46 +13409,46 @@
       <c r="B8" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>1.0002449840240701E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>2.2366157784310101E-3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>3.60643457792444E-3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>5.00122492012035E-3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>6.4046929005751596E-3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>7.8121630623012497E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>9.2218030983941303E-3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>1.0632750028632299E-2</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>1.20445445770884E-2</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>1.3438320209973801E-2</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>1.3713910761154901E-2</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>1.55839895013123E-2</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <f>P7</f>
         <v>555.68219356569398</v>
       </c>
@@ -13445,50 +13457,50 @@
       <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f>1/3*(4*D9-E9)</f>
         <v>727.72141299999998</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>727.03349100000003</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>724.96972500000004</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>720.39668300000005</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>713.41206</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>704.04126799999995</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>692.29434300000003</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>678.17625399999997</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>661.68981499999995</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>642.836771</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>621.89770199999998</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>572.63100199999997</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <v>562.76721999999995</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="10">
         <f>P8</f>
         <v>555.68219356569398</v>
       </c>
@@ -13497,14 +13509,14 @@
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>1/3*(4*D10-E10)</f>
         <v>727.67572833333338</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>726.98804600000005</v>
       </c>
       <c r="E10">
@@ -13540,20 +13552,20 @@
       <c r="O10">
         <v>562.765175</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="10">
         <f>P9</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="R10" s="12"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f>1/3*(4*D11-E11)</f>
         <v>727.73116399999992</v>
       </c>
@@ -13593,7 +13605,7 @@
       <c r="O11">
         <v>562.76765699999999</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <f>P10</f>
         <v>555.68219356569398</v>
       </c>
@@ -13602,10 +13614,10 @@
       <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>727.18</v>
       </c>
       <c r="D12">
@@ -13644,14 +13656,14 @@
       <c r="O12">
         <v>562.76766099999998</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="10">
         <f>P11</f>
         <v>555.68219356569398</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="P13" t="e">
@@ -13660,265 +13672,265 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" ref="C14:O14" si="1">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>3.0487467113053651E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>6.8172048926577175E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>0.10992412593513691</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.15243733556526826</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>0.19521503960953085</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0.23811473013894205</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>0.28108055843905305</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
         <v>0.32408622087271244</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>0.36711771870965437</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <f t="shared" si="1"/>
         <v>0.40960000000000135</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <f t="shared" si="1"/>
         <v>0.41800000000000137</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
         <v>0.47499999999999887</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f t="shared" ref="C15:L15" si="2">q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(C14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f t="shared" si="2"/>
         <v>91.728997504567403</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>90.417138264458387</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>87.793419784240371</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>83.857842063913324</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>78.610405103477248</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="2"/>
         <v>72.051108902932199</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>64.179953462278107</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <f t="shared" si="2"/>
         <v>54.996938781515055</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <f t="shared" si="2"/>
         <v>44.502064860643138</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f>delta_gap+delta_clad</f>
         <v>32.859314104675335</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <f>delta_clad</f>
         <v>5.4876097013893084</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <f>-delta_fluid</f>
         <v>-3.961063674805323</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5" t="s">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f t="shared" ref="C16:O16" si="3">(C9-$O9)*t_R_K</f>
         <v>91.641218333333356</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f t="shared" si="3"/>
         <v>91.259039444444497</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
         <v>90.112502777777834</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>87.571923888888946</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>83.691577777777809</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>78.48558222222222</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="3"/>
         <v>71.959512777777817</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>64.116130000000013</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>54.956997222222228</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
         <v>44.48308388888892</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <f t="shared" si="3"/>
         <v>32.850267777777795</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <f t="shared" si="3"/>
         <v>5.479878888888897</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <f>(P8-$O9)*t_R_K</f>
         <v>-3.9361257968366523</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" s="1" t="str">
         <f>B16</f>
         <v>Semi-implicit Trans</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="7">
         <f t="shared" ref="R16:AD19" si="4">C16-C$15</f>
         <v>-0.41574398126130063</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <f t="shared" si="4"/>
         <v>-0.46995806012290586</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="7">
         <f t="shared" si="4"/>
         <v>-0.30463548668055296</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="7">
         <f t="shared" si="4"/>
         <v>-0.22149589535142411</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="7">
         <f t="shared" si="4"/>
         <v>-0.16626428613551525</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="7">
         <f t="shared" si="4"/>
         <v>-0.12482288125502805</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="7">
         <f t="shared" si="4"/>
         <v>-9.159612515438198E-2</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="7">
         <f t="shared" si="4"/>
         <v>-6.3823462278094212E-2</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="7">
         <f t="shared" si="4"/>
         <v>-3.9941559292827833E-2</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="7">
         <f t="shared" si="4"/>
         <v>-1.8980971754217535E-2</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="7">
         <f t="shared" si="4"/>
         <v>-9.0463268975398137E-3</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="7">
         <f t="shared" si="4"/>
         <v>-7.7308125004114103E-3</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13927,118 +13939,118 @@
       <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <f t="shared" ref="C17:O17" si="5">(C10-$O10)*t_R_K</f>
         <v>91.616974074074108</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="5"/>
         <v>91.234928333333372</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="5"/>
         <v>90.088791111111092</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <f t="shared" si="5"/>
         <v>87.549086666666653</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>83.670047222222223</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="5"/>
         <v>78.465749999999986</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" si="5"/>
         <v>71.94172277777777</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
         <v>64.100669444444463</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="5"/>
         <v>54.944092222222217</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <f t="shared" si="5"/>
         <v>44.472892222222214</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <f t="shared" si="5"/>
         <v>32.842838333333347</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <f t="shared" si="5"/>
         <v>5.4786138888888702</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <f>(P11-$O10)*t_R_K</f>
         <v>-3.9349896857255673</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q17" s="1" t="str">
         <f>B17</f>
         <v>Implicit Trans</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="7">
         <f t="shared" si="4"/>
         <v>-0.43998824052054886</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <f t="shared" si="4"/>
         <v>-0.49406917123403105</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="7">
         <f t="shared" si="4"/>
         <v>-0.32834715334729481</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="7">
         <f t="shared" si="4"/>
         <v>-0.24433311757371712</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="7">
         <f t="shared" si="4"/>
         <v>-0.18779484169110106</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="7">
         <f t="shared" si="4"/>
         <v>-0.14465510347726251</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="7">
         <f t="shared" si="4"/>
         <v>-0.10938612515442969</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="7">
         <f t="shared" si="4"/>
         <v>-7.9284017833643361E-2</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="7">
         <f t="shared" si="4"/>
         <v>-5.2846559292838435E-2</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="7">
         <f t="shared" si="4"/>
         <v>-2.9172638420924102E-2</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="7">
         <f t="shared" si="4"/>
         <v>-1.6475771341987411E-2</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="7">
         <f t="shared" si="4"/>
         <v>-8.9958125004381273E-3</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14047,118 +14059,118 @@
       <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:O18" si="6">(C11-$O11)*t_R_K</f>
         <v>91.646392777777749</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f t="shared" si="6"/>
         <v>91.264185555555557</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f t="shared" si="6"/>
         <v>90.117563888888924</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <f t="shared" si="6"/>
         <v>87.576797777777784</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f t="shared" si="6"/>
         <v>83.696172777777761</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
         <v>78.489815555555538</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="6"/>
         <v>71.963309999999993</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="6"/>
         <v>64.119429444444464</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <f t="shared" si="6"/>
         <v>54.95975111111111</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <f t="shared" si="6"/>
         <v>44.485258888888922</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <f t="shared" si="6"/>
         <v>32.851853333333324</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <f t="shared" si="6"/>
         <v>5.4801488888889107</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <f>(P9-$O11)*t_R_K</f>
         <v>-3.9363685746144483</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" s="1" t="str">
         <f>B18</f>
         <v>Implicit SS</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="7">
         <f t="shared" si="4"/>
         <v>-0.410569536816908</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <f t="shared" si="4"/>
         <v>-0.46481194901184608</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="7">
         <f t="shared" si="4"/>
         <v>-0.29957437556946331</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="7">
         <f t="shared" si="4"/>
         <v>-0.21662200646258611</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="7">
         <f t="shared" si="4"/>
         <v>-0.16166928613556308</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="7">
         <f t="shared" si="4"/>
         <v>-0.1205895479217105</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="7">
         <f t="shared" si="4"/>
         <v>-8.7798902932206602E-2</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="7">
         <f t="shared" si="4"/>
         <v>-6.0524017833643029E-2</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="7">
         <f t="shared" si="4"/>
         <v>-3.7187670403945106E-2</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="7">
         <f t="shared" si="4"/>
         <v>-1.6805971754216387E-2</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="7">
         <f t="shared" si="4"/>
         <v>-7.4607713420107302E-3</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="7">
         <f t="shared" si="4"/>
         <v>-7.4608125003976511E-3</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14167,393 +14179,393 @@
       <c r="A19" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f t="shared" ref="C19:O19" si="7">(C12-$O12)*t_R_K</f>
         <v>91.34018833333333</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="7"/>
         <v>91.078732777777802</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="7"/>
         <v>90.023040555555554</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f t="shared" si="7"/>
         <v>87.516014999999996</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="7"/>
         <v>83.655597222222269</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="7"/>
         <v>78.463755555555593</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="7"/>
         <v>71.948620555555564</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" si="7"/>
         <v>64.11410444444445</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f t="shared" si="7"/>
         <v>54.962395555555574</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <f t="shared" si="7"/>
         <v>44.494843333333357</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <f t="shared" si="7"/>
         <v>32.859314444444486</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <f t="shared" si="7"/>
         <v>5.4876100000000054</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <f>(P10-$O12)*t_R_K</f>
         <v>-3.9363707968366652</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q19" s="1" t="str">
         <f>B19</f>
         <v>Original</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="7">
         <f t="shared" si="4"/>
         <v>-0.7167739812613263</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="7">
         <f t="shared" si="4"/>
         <v>-0.6502647267896009</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="7">
         <f t="shared" si="4"/>
         <v>-0.39409770890283369</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="7">
         <f t="shared" si="4"/>
         <v>-0.27740478424037462</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="7">
         <f t="shared" si="4"/>
         <v>-0.20224484169105494</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="7">
         <f t="shared" si="4"/>
         <v>-0.14664954792165474</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="7">
         <f t="shared" si="4"/>
         <v>-0.10248834737663515</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="7">
         <f t="shared" si="4"/>
         <v>-6.5849017833656376E-2</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="7">
         <f t="shared" si="4"/>
         <v>-3.454322595948156E-2</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="7">
         <f t="shared" si="4"/>
         <v>-7.221527309781095E-3</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="7">
         <f t="shared" si="4"/>
         <v>3.3976915148059561E-7</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="7">
         <f t="shared" si="4"/>
         <v>2.986106970581659E-7</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" ref="C22:O22" si="8">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="8"/>
         <v>3.0487467113053651E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="8"/>
         <v>6.8172048926577175E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="8"/>
         <v>0.10992412593513691</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" si="8"/>
         <v>0.15243733556526826</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" si="8"/>
         <v>0.19521503960953085</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="8"/>
         <v>0.23811473013894205</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="8">
         <f t="shared" si="8"/>
         <v>0.28108055843905305</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="8">
         <f t="shared" si="8"/>
         <v>0.32408622087271244</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <f t="shared" si="8"/>
         <v>0.36711771870965437</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="8">
         <f t="shared" si="8"/>
         <v>0.40960000000000135</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="8">
         <f t="shared" si="8"/>
         <v>0.41800000000000137</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="8">
         <f t="shared" si="8"/>
         <v>0.47499999999999887</v>
       </c>
-      <c r="P22" s="10"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f t="shared" ref="C23:O23" si="9">C15+$P23-$P15</f>
         <v>386.95257797034111</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f t="shared" si="9"/>
         <v>386.62461316031386</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f t="shared" si="9"/>
         <v>385.31275392020484</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <f t="shared" si="9"/>
         <v>382.68903543998681</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <f t="shared" si="9"/>
         <v>378.75345771965976</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <f t="shared" si="9"/>
         <v>373.5060207592237</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="9"/>
         <v>366.94672455867862</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <f t="shared" si="9"/>
         <v>359.07556911802453</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <f t="shared" si="9"/>
         <v>349.89255443726148</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <f t="shared" si="9"/>
         <v>339.39768051638958</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <f t="shared" si="9"/>
         <v>327.75492976042176</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="5">
         <f t="shared" si="9"/>
         <v>300.38322535713576</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="5">
         <f t="shared" si="9"/>
         <v>294.89561565574644</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <f>5/9*(P7-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="5" t="s">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f t="shared" ref="C24:O24" si="10">C16+$P24-$P16</f>
         <v>386.51189611111118</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="10"/>
         <v>386.12971722222233</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="10"/>
         <v>384.98318055555563</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f t="shared" si="10"/>
         <v>382.44260166666675</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f t="shared" si="10"/>
         <v>378.56225555555562</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="10"/>
         <v>373.35626000000002</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="10"/>
         <v>366.83019055555565</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="10"/>
         <v>358.98680777777781</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f t="shared" si="10"/>
         <v>349.82767500000006</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <f t="shared" si="10"/>
         <v>339.35376166666674</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <f t="shared" si="10"/>
         <v>327.7209455555556</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="5">
         <f t="shared" si="10"/>
         <v>300.35055666666671</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="5">
         <f t="shared" si="10"/>
         <v>294.87067777777781</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <f>5/9*(P8-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <f t="shared" ref="R24:AD26" si="11">(C24-C$23)/C$23</f>
         <v>-1.1388523667199939E-3</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <f t="shared" si="11"/>
         <v>-1.2800425043977288E-3</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <f t="shared" si="11"/>
         <v>-8.5533987986667766E-4</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="20">
         <f t="shared" si="11"/>
         <v>-6.4395305456487091E-4</v>
       </c>
-      <c r="V24" s="22">
+      <c r="V24" s="20">
         <f t="shared" si="11"/>
         <v>-5.0481958700865999E-4</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W24" s="20">
         <f t="shared" si="11"/>
         <v>-4.0095942474839877E-4</v>
       </c>
-      <c r="X24" s="22">
+      <c r="X24" s="20">
         <f t="shared" si="11"/>
         <v>-3.1757744469073165E-4</v>
       </c>
-      <c r="Y24" s="22">
+      <c r="Y24" s="20">
         <f t="shared" si="11"/>
         <v>-2.4719403902843804E-4</v>
       </c>
-      <c r="Z24" s="22">
+      <c r="Z24" s="20">
         <f t="shared" si="11"/>
         <v>-1.8542674440664086E-4</v>
       </c>
-      <c r="AA24" s="22">
+      <c r="AA24" s="20">
         <f t="shared" si="11"/>
         <v>-1.2940232725226896E-4</v>
       </c>
-      <c r="AB24" s="22">
+      <c r="AB24" s="20">
         <f t="shared" si="11"/>
         <v>-1.0368785266174152E-4</v>
       </c>
-      <c r="AC24" s="22">
+      <c r="AC24" s="20">
         <f t="shared" si="11"/>
         <v>-1.0875670713706115E-4</v>
       </c>
-      <c r="AD24" s="22">
+      <c r="AD24" s="20">
         <f t="shared" si="11"/>
         <v>-8.4565102513213292E-5</v>
       </c>
@@ -14562,117 +14574,117 @@
       <c r="A25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:O25" si="12">C17+$P25-$P17</f>
         <v>386.4865157407408</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <f t="shared" si="12"/>
         <v>386.10447000000005</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="12"/>
         <v>384.9583327777778</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f t="shared" si="12"/>
         <v>382.41862833333334</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <f t="shared" si="12"/>
         <v>378.53958888888894</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="12"/>
         <v>373.33529166666665</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="12"/>
         <v>366.81126444444448</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="12"/>
         <v>358.97021111111115</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f t="shared" si="12"/>
         <v>349.81363388888889</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <f t="shared" si="12"/>
         <v>339.34243388888888</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <f t="shared" si="12"/>
         <v>327.71238000000005</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="5">
         <f t="shared" si="12"/>
         <v>300.34815555555554</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="5">
         <f t="shared" si="12"/>
         <v>294.86954166666669</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="5">
         <f>5/9*(P11-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <f t="shared" si="11"/>
         <v>-1.2044427563835318E-3</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="20">
         <f t="shared" si="11"/>
         <v>-1.3453441467735274E-3</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <f t="shared" si="11"/>
         <v>-9.1982717629025248E-4</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="20">
         <f t="shared" si="11"/>
         <v>-7.0659747631016308E-4</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="20">
         <f t="shared" si="11"/>
         <v>-5.6466502526062497E-4</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="20">
         <f t="shared" si="11"/>
         <v>-4.5709863581318755E-4</v>
       </c>
-      <c r="X25" s="22">
+      <c r="X25" s="20">
         <f t="shared" si="11"/>
         <v>-3.6915471693354195E-4</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25" s="20">
         <f t="shared" si="11"/>
         <v>-2.9341457892042536E-4</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25" s="20">
         <f t="shared" si="11"/>
         <v>-2.2555652405785827E-4</v>
       </c>
-      <c r="AA25" s="22">
+      <c r="AA25" s="20">
         <f t="shared" si="11"/>
         <v>-1.6277844744445703E-4</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AB25" s="20">
         <f t="shared" si="11"/>
         <v>-1.2982187774508716E-4</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25" s="20">
         <f t="shared" si="11"/>
         <v>-1.1675019981067589E-4</v>
       </c>
-      <c r="AD25" s="22">
+      <c r="AD25" s="20">
         <f t="shared" si="11"/>
         <v>-8.8417689838380718E-5</v>
       </c>
@@ -14681,117 +14693,117 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <f t="shared" ref="C26:O26" si="13">C18+$P26-$P18</f>
         <v>386.51731333333333</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <f t="shared" si="13"/>
         <v>386.13510611111116</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <f t="shared" si="13"/>
         <v>384.98848444444451</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <f t="shared" si="13"/>
         <v>382.44771833333334</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <f t="shared" si="13"/>
         <v>378.56709333333333</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" si="13"/>
         <v>373.36073611111112</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <f t="shared" si="13"/>
         <v>366.83423055555556</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <f t="shared" si="13"/>
         <v>358.99035000000003</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <f t="shared" si="13"/>
         <v>349.83067166666672</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <f t="shared" si="13"/>
         <v>339.35617944444448</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <f t="shared" si="13"/>
         <v>327.72277388888892</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="5">
         <f t="shared" si="13"/>
         <v>300.35106944444448</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="5">
         <f t="shared" si="13"/>
         <v>294.87092055555559</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <f>5/9*(P9-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <f t="shared" si="11"/>
         <v>-1.1248526609923201E-3</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="20">
         <f t="shared" si="11"/>
         <v>-1.2661042068724327E-3</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="20">
         <f t="shared" si="11"/>
         <v>-8.4157472718249368E-4</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="20">
         <f t="shared" si="11"/>
         <v>-6.3058275598625556E-4</v>
       </c>
-      <c r="V26" s="22">
+      <c r="V26" s="20">
         <f t="shared" si="11"/>
         <v>-4.9204669298193431E-4</v>
       </c>
-      <c r="W26" s="22">
+      <c r="W26" s="20">
         <f t="shared" si="11"/>
         <v>-3.8897538469998309E-4</v>
       </c>
-      <c r="X26" s="22">
+      <c r="X26" s="20">
         <f t="shared" si="11"/>
         <v>-3.0656767207380215E-4</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="20">
         <f t="shared" si="11"/>
         <v>-2.3732920129825529E-4</v>
       </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="20">
         <f t="shared" si="11"/>
         <v>-1.768622104414052E-4</v>
       </c>
-      <c r="AA26" s="22">
+      <c r="AA26" s="20">
         <f t="shared" si="11"/>
         <v>-1.2227859625311142E-4</v>
       </c>
-      <c r="AB26" s="22">
+      <c r="AB26" s="20">
         <f t="shared" si="11"/>
         <v>-9.8109497716301013E-5</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AC26" s="20">
         <f t="shared" si="11"/>
         <v>-1.0704962853051802E-4</v>
       </c>
-      <c r="AD26" s="22">
+      <c r="AD26" s="20">
         <f t="shared" si="11"/>
         <v>-8.3741835686301338E-5</v>
       </c>
@@ -14800,203 +14812,203 @@
       <c r="A27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <f t="shared" ref="C27:O27" si="14">C19+$P27-$P19</f>
         <v>386.21111111111117</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f t="shared" si="14"/>
         <v>385.94965555555564</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <f t="shared" si="14"/>
         <v>384.89396333333337</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <f t="shared" si="14"/>
         <v>382.3869377777778</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <f t="shared" si="14"/>
         <v>378.52652000000006</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <f t="shared" si="14"/>
         <v>373.33467833333344</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <f t="shared" si="14"/>
         <v>366.8195433333334</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <f t="shared" si="14"/>
         <v>358.9850272222223</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f t="shared" si="14"/>
         <v>349.83331833333341</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <f t="shared" si="14"/>
         <v>339.36576611111116</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <f t="shared" si="14"/>
         <v>327.73023722222229</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="5">
         <f t="shared" si="14"/>
         <v>300.35853277777784</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="5">
         <f t="shared" si="14"/>
         <v>294.87092277777782</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="5">
         <f>5/9*(P10-32)</f>
         <v>290.93455198094114</v>
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="Q28" s="3"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:30">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
         <v>727.03349100000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>724.96972500000004</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>720.39668300000005</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>713.41206</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>704.04126799999995</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>692.29434300000003</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>678.17625399999997</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>661.68981499999995</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>642.836771</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>621.89770199999998</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="5">
         <v>572.63100199999997</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="5">
         <v>562.76721999999995</v>
       </c>
-      <c r="P32" s="7"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="7"/>
-      <c r="D33" s="3">
+      <c r="A33" s="5"/>
+      <c r="D33" s="1">
         <v>726.98804600000005</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>724.92499899999996</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>720.35353099999998</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>713.37126000000001</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>704.00352499999997</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>692.26027599999998</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>678.14638000000002</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>661.66454099999999</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>642.81638099999998</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="1">
         <v>621.88228400000003</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <v>572.62667999999996</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="1">
         <v>562.765175</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>727.04319099999998</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>724.97927200000004</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>720.40589299999999</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>713.42076799999995</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>704.04932499999995</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>692.30161499999997</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>678.18263000000002</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>661.69520899999998</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>642.84112300000004</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <v>621.90099299999997</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <v>572.63192500000002</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="1">
         <v>562.76765699999999</v>
       </c>
     </row>
@@ -15029,76 +15041,76 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:40">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -15106,11 +15118,11 @@
       <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>D8</f>
         <v>4.8729883837070098E-4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f>E8</f>
         <v>1.0896333279535699E-3</v>
       </c>
@@ -15194,7 +15206,7 @@
         <f t="shared" si="0"/>
         <v>1.8700787401573996E-3</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15205,73 +15217,73 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>4.8729883837070098E-4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>1.0896333279535699E-3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>1.7569809482196001E-3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>2.4364941918535001E-3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>3.1202350028443101E-3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>3.80592559445446E-3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <v>4.4926733043458601E-3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>5.1800577062567701E-3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <v>5.86785505037642E-3</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>6.5559353700151502E-3</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="10">
         <v>7.2442180317072898E-3</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="10">
         <v>7.93265036652443E-3</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="10">
         <v>8.6211965187923296E-3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="10">
         <v>9.3098312350581094E-3</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="10">
         <v>9.9985362161868502E-3</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="10">
         <v>1.0687297878278001E-2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="10">
         <v>1.1376105926159501E-2</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="10">
         <v>1.2064952415110001E-2</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="10">
         <v>1.2753831116415299E-2</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="10">
         <v>1.3438320209973801E-2</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="10">
         <v>1.3713910761154901E-2</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="10">
         <v>1.55839895013123E-2</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="17">
         <f>(t_in+q_lin*dz*2/(M_dot*cp_in))*9/5+32</f>
         <v>555.68219356569398</v>
       </c>
@@ -15280,59 +15292,59 @@
       <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f>1/3*(4*D9-E9)</f>
         <v>728.22331566666662</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>728.06004199999995</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>727.57022099999995</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>726.48483999999996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>724.827089</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>722.60300199999995</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>719.81496200000004</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>716.46415400000001</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>712.55124999999998</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>708.07666800000004</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>703.04068500000005</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>697.44349499999998</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <v>691.28523700000005</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>684.56601499999999</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <v>677.28590899999995</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>669.44497899999999</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <v>661.04327499999999</v>
       </c>
       <c r="T9">
@@ -15353,7 +15365,7 @@
       <c r="Y9">
         <v>562.76720999999998</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="10">
         <f>Z8</f>
         <v>555.68219356569398</v>
       </c>
@@ -15362,14 +15374,14 @@
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f>1/3*(4*D10-E10)</f>
         <v>728.17695266666669</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>728.01373699999999</v>
       </c>
       <c r="E10">
@@ -15435,7 +15447,7 @@
       <c r="Y10">
         <v>562.76513499999999</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="10">
         <f>Z11</f>
         <v>555.68219356569398</v>
       </c>
@@ -15444,14 +15456,14 @@
       <c r="A11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f>1/3*(4*D11-E11)</f>
         <v>728.23330033333332</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>728.07001400000001</v>
       </c>
       <c r="E11">
@@ -15517,7 +15529,7 @@
       <c r="Y11">
         <v>562.76765699999999</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="10">
         <f>Z9</f>
         <v>555.68219356569398</v>
       </c>
@@ -15526,10 +15538,10 @@
       <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f>1/3*(4*D12-E12)</f>
         <v>728.13271000000009</v>
       </c>
@@ -15599,275 +15611,275 @@
       <c r="Y12">
         <v>562.76766099999998</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="10">
         <f>Z10</f>
         <v>555.68219356569398</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" ref="C14:Y14" si="1">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>1.4852868593538963E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>3.3212023836024805E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>5.3552779301733404E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>7.4264342967694671E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>9.510476288669456E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0.11600461211897191</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>0.13693668231646181</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
         <v>0.15788815888670632</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>0.17885222193547326</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <f t="shared" si="1"/>
         <v>0.19982491007806175</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <f t="shared" si="1"/>
         <v>0.22080376560643816</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
         <v>0.24178718317166459</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <f t="shared" si="1"/>
         <v>0.26277406989279017</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <f t="shared" si="1"/>
         <v>0.2837636560445711</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <f t="shared" si="1"/>
         <v>0.30475538386937517</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="5">
         <f t="shared" si="1"/>
         <v>0.32574883932991344</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="5">
         <f t="shared" si="1"/>
         <v>0.34674370862934156</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="5">
         <f t="shared" si="1"/>
         <v>0.36773974961255274</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="5">
         <f t="shared" si="1"/>
         <v>0.38873677242833832</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="5">
         <f t="shared" si="1"/>
         <v>0.40960000000000135</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="5">
         <f t="shared" si="1"/>
         <v>0.41800000000000137</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="5">
         <f t="shared" si="1"/>
         <v>0.47499999999999887</v>
       </c>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="5" t="s">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f t="shared" ref="C15:V15" si="2">q_dot*1000/(4*k_fuel)*((R_fuel/100)^2)*(1-(C14/R_fuel)^2)+delta_gap+delta_clad</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <f t="shared" si="2"/>
         <v>91.979121883023438</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>91.66776015673851</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>91.04503670416868</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>90.110951525313951</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>88.865504620174278</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f t="shared" si="2"/>
         <v>87.308695988749704</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>85.440525631040231</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <f t="shared" si="2"/>
         <v>83.260993547045828</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <f t="shared" si="2"/>
         <v>80.770099736766511</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f t="shared" si="2"/>
         <v>77.967844200202293</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <f t="shared" si="2"/>
         <v>74.854226937353147</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <f t="shared" si="2"/>
         <v>71.4292479482191</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <f t="shared" si="2"/>
         <v>67.692907232800152</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="5">
         <f t="shared" si="2"/>
         <v>63.645204791096255</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <f t="shared" si="2"/>
         <v>59.286140623107414</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="5">
         <f t="shared" si="2"/>
         <v>54.615714728833929</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="5">
         <f t="shared" si="2"/>
         <v>49.633927108275273</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="5">
         <f t="shared" si="2"/>
         <v>44.340777761431177</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="5">
         <f t="shared" si="2"/>
         <v>38.736266688302969</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="5">
         <f>delta_gap+delta_clad</f>
         <v>32.859314104675335</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="5">
         <f>delta_clad</f>
         <v>5.4876097013893084</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="5">
         <f>-delta_fluid</f>
         <v>-3.961063674805323</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AB15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="7">
         <f t="shared" ref="AC15:AN16" si="3">C16-C$15</f>
         <v>-0.13690361089095404</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="7">
         <f t="shared" si="3"/>
         <v>-0.14977077191232979</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AE15" s="7">
         <f t="shared" si="3"/>
         <v>-0.11053182340518219</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="7">
         <f t="shared" si="3"/>
         <v>-9.0797815279799465E-2</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AG15" s="7">
         <f t="shared" si="3"/>
         <v>-7.7685414202818492E-2</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AH15" s="7">
         <f t="shared" si="3"/>
         <v>-6.7842397952063038E-2</v>
       </c>
-      <c r="AI15" s="9">
+      <c r="AI15" s="7">
         <f t="shared" si="3"/>
         <v>-5.9944877638557159E-2</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AJ15" s="7">
         <f t="shared" si="3"/>
         <v>-5.3334519929094881E-2</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AK15" s="7">
         <f t="shared" si="3"/>
         <v>-4.7637991490262266E-2</v>
       </c>
-      <c r="AL15" s="9">
+      <c r="AL15" s="7">
         <f t="shared" si="3"/>
         <v>-4.2623070099807592E-2</v>
       </c>
-      <c r="AM15" s="9">
+      <c r="AM15" s="7">
         <f t="shared" si="3"/>
         <v>-3.8135866868913126E-2</v>
       </c>
-      <c r="AN15" s="9">
+      <c r="AN15" s="7">
         <f t="shared" si="3"/>
         <v>-3.4068604019807935E-2</v>
       </c>
@@ -15876,153 +15888,153 @@
       <c r="A16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f t="shared" ref="C16:Z16" si="4">(C9-$Y9)*t_R_K</f>
         <v>91.920058703703702</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <f t="shared" si="4"/>
         <v>91.829351111111109</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f t="shared" si="4"/>
         <v>91.557228333333327</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
         <v>90.954238888888881</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="4"/>
         <v>90.033266111111132</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <f t="shared" si="4"/>
         <v>88.797662222222215</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f t="shared" si="4"/>
         <v>87.248751111111147</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <f t="shared" si="4"/>
         <v>85.387191111111136</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>83.213355555555566</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <f t="shared" si="4"/>
         <v>80.727476666666703</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <f t="shared" si="4"/>
         <v>77.92970833333338</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <f t="shared" si="4"/>
         <v>74.820158333333339</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <f t="shared" si="4"/>
         <v>71.398903888888938</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <f t="shared" si="4"/>
         <v>67.666002777777791</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <f t="shared" si="4"/>
         <v>63.621499444444432</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <f t="shared" si="4"/>
         <v>59.265427222222229</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="5">
         <f t="shared" si="4"/>
         <v>54.597813888888901</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="5">
         <f t="shared" si="4"/>
         <v>49.618680000000005</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="5">
         <f t="shared" si="4"/>
         <v>44.328043333333341</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="5">
         <f t="shared" si="4"/>
         <v>38.725917777777823</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="5">
         <f t="shared" si="4"/>
         <v>32.850229999999989</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="5">
         <f t="shared" si="4"/>
         <v>5.4798727777778016</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="5">
         <f t="shared" si="4"/>
         <v>-3.9361202412811105</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AB16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="7">
         <f t="shared" si="3"/>
         <v>-0.16150805533537493</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="7">
         <f t="shared" si="3"/>
         <v>-0.17434299413454823</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AE16" s="7">
         <f t="shared" si="3"/>
         <v>-0.13500737896072224</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AF16" s="7">
         <f t="shared" si="3"/>
         <v>-0.11506059305757788</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AG16" s="7">
         <f t="shared" si="3"/>
         <v>-0.101624303091711</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AH16" s="7">
         <f t="shared" si="3"/>
         <v>-9.1350731285359643E-2</v>
       </c>
-      <c r="AI16" s="9">
+      <c r="AI16" s="7">
         <f t="shared" si="3"/>
         <v>-8.2917655416380853E-2</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AJ16" s="7">
         <f t="shared" si="3"/>
         <v>-7.5672297706887548E-2</v>
       </c>
-      <c r="AK16" s="9">
+      <c r="AK16" s="7">
         <f t="shared" si="3"/>
         <v>-6.9244102601402346E-2</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AL16" s="7">
         <f t="shared" si="3"/>
         <v>-6.3406403433148739E-2</v>
       </c>
-      <c r="AM16" s="9">
+      <c r="AM16" s="7">
         <f t="shared" si="3"/>
         <v>-5.8009755757836956E-2</v>
       </c>
-      <c r="AN16" s="9">
+      <c r="AN16" s="7">
         <f t="shared" si="3"/>
         <v>-5.2953048464260632E-2</v>
       </c>
@@ -16031,102 +16043,102 @@
       <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <f t="shared" ref="C17:Z17" si="5">(C10-$Y10)*t_R_K</f>
         <v>91.895454259259282</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <f t="shared" si="5"/>
         <v>91.80477888888889</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <f t="shared" si="5"/>
         <v>91.532752777777787</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <f t="shared" si="5"/>
         <v>90.929976111111102</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>90.00932722222224</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <f t="shared" si="5"/>
         <v>88.774153888888918</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <f t="shared" si="5"/>
         <v>87.225778333333324</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
         <v>85.364853333333343</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="5"/>
         <v>83.191749444444426</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <f t="shared" si="5"/>
         <v>80.706693333333362</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <f t="shared" si="5"/>
         <v>77.909834444444456</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <f t="shared" si="5"/>
         <v>74.801273888888886</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <f t="shared" si="5"/>
         <v>71.381083333333336</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="5">
         <f t="shared" si="5"/>
         <v>67.649313333333353</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="5">
         <f t="shared" si="5"/>
         <v>63.606001111111134</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <f t="shared" si="5"/>
         <v>59.251172777777775</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <f t="shared" si="5"/>
         <v>54.584847222222258</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="5">
         <f t="shared" si="5"/>
         <v>49.607038888888916</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="5">
         <f t="shared" si="5"/>
         <v>44.317755555555578</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="5">
         <f t="shared" si="5"/>
         <v>38.717004444444441</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <f t="shared" si="5"/>
         <v>32.842693333333337</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="5">
         <f t="shared" si="5"/>
         <v>5.4785894444444239</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="5">
         <f t="shared" si="5"/>
         <v>-3.9349674635033378</v>
       </c>
@@ -16135,153 +16147,153 @@
       <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <f t="shared" ref="C18:Y18" si="6">(C11-$Y11)*t_R_K</f>
         <v>91.925357407407418</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <f t="shared" si="6"/>
         <v>91.834642777777802</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <f t="shared" si="6"/>
         <v>91.562498888888896</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <f t="shared" si="6"/>
         <v>90.959463888888891</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <f t="shared" si="6"/>
         <v>90.03842111111112</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
         <v>88.802724444444465</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <f t="shared" si="6"/>
         <v>87.253698333333318</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <f t="shared" si="6"/>
         <v>85.392001666666673</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <f t="shared" si="6"/>
         <v>83.218008333333344</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <f t="shared" si="6"/>
         <v>80.731951666666646</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <f t="shared" si="6"/>
         <v>77.933987777777816</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <f t="shared" si="6"/>
         <v>74.824224444444482</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <f t="shared" si="6"/>
         <v>71.402741111111126</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="5">
         <f t="shared" si="6"/>
         <v>67.669596666666706</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="5">
         <f t="shared" si="6"/>
         <v>63.624836666666688</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <f t="shared" si="6"/>
         <v>59.268497222222251</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="5">
         <f t="shared" si="6"/>
         <v>54.600606111111148</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="5">
         <f t="shared" si="6"/>
         <v>49.621186666666659</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="5">
         <f t="shared" si="6"/>
         <v>44.33025888888892</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="5">
         <f t="shared" si="6"/>
         <v>38.72783722222222</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="5">
         <f t="shared" si="6"/>
         <v>32.851853333333324</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="5">
         <f t="shared" si="6"/>
         <v>5.4801488888889107</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="5">
         <f>(Z12-$Y12)*t_R_K</f>
         <v>-3.9363707968366652</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AB18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="7">
         <f t="shared" ref="AC18:AN18" si="7">C19-C$15</f>
         <v>-0.18749064792791614</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="7">
         <f t="shared" si="7"/>
         <v>-0.19317077191227838</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AE18" s="7">
         <f t="shared" si="7"/>
         <v>-0.13237071229407604</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="7">
         <f t="shared" si="7"/>
         <v>-0.10467448194641804</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="7">
         <f t="shared" si="7"/>
         <v>-8.6835414202838024E-2</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AH18" s="7">
         <f t="shared" si="7"/>
         <v>-7.3640731285351535E-2</v>
       </c>
-      <c r="AI18" s="9">
+      <c r="AI18" s="7">
         <f t="shared" si="7"/>
         <v>-6.3159322083038205E-2</v>
       </c>
-      <c r="AJ18" s="9">
+      <c r="AJ18" s="7">
         <f t="shared" si="7"/>
         <v>-5.4462853262421618E-2</v>
       </c>
-      <c r="AK18" s="9">
+      <c r="AK18" s="7">
         <f t="shared" si="7"/>
         <v>-4.7032991490283393E-2</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AL18" s="7">
         <f t="shared" si="7"/>
         <v>-4.0548070099802658E-2</v>
       </c>
-      <c r="AM18" s="9">
+      <c r="AM18" s="7">
         <f t="shared" si="7"/>
         <v>-3.4796977980050769E-2</v>
       </c>
-      <c r="AN18" s="9">
+      <c r="AN18" s="7">
         <f t="shared" si="7"/>
         <v>-2.9632492908717722E-2</v>
       </c>
@@ -16290,457 +16302,457 @@
       <c r="A19" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <f t="shared" ref="C19:Y19" si="8">(C12-$Y12)*t_R_K</f>
         <v>91.86947166666674</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <f t="shared" si="8"/>
         <v>91.78595111111116</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <f t="shared" si="8"/>
         <v>91.535389444444434</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f t="shared" si="8"/>
         <v>90.940362222222262</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <f t="shared" si="8"/>
         <v>90.024116111111113</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f t="shared" si="8"/>
         <v>88.791863888888926</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f t="shared" si="8"/>
         <v>87.245536666666666</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <f t="shared" si="8"/>
         <v>85.386062777777809</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f t="shared" si="8"/>
         <v>83.213960555555545</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <f t="shared" si="8"/>
         <v>80.729551666666708</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <f t="shared" si="8"/>
         <v>77.933047222222243</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <f t="shared" si="8"/>
         <v>74.824594444444429</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="5">
         <f t="shared" si="8"/>
         <v>71.404300000000006</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="5">
         <f t="shared" si="8"/>
         <v>67.672244444444487</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="5">
         <f t="shared" si="8"/>
         <v>63.628488333333358</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="5">
         <f t="shared" si="8"/>
         <v>59.273080000000014</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="5">
         <f t="shared" si="8"/>
         <v>54.606057777777821</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="5">
         <f t="shared" si="8"/>
         <v>49.627452777777805</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="5">
         <f t="shared" si="8"/>
         <v>44.337290555555583</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="5">
         <f t="shared" si="8"/>
         <v>38.735592222222223</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="5">
         <f t="shared" si="8"/>
         <v>32.859314444444486</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="5">
         <f t="shared" si="8"/>
         <v>5.4876100000000054</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="5">
         <f>(Z12-$Y12)*t_R_K</f>
         <v>-3.9363707968366652</v>
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:41">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f t="shared" ref="C22:O22" si="9">(C8)*t_ft_m*100</f>
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <f t="shared" si="9"/>
         <v>1.4852868593538963E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f t="shared" si="9"/>
         <v>3.3212023836024805E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="9"/>
         <v>5.3552779301733404E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" si="9"/>
         <v>7.4264342967694671E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" si="9"/>
         <v>9.510476288669456E-2</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f t="shared" si="9"/>
         <v>0.11600461211897191</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="8">
         <f t="shared" si="9"/>
         <v>0.13693668231646181</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="8">
         <f t="shared" si="9"/>
         <v>0.15788815888670632</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <f t="shared" si="9"/>
         <v>0.17885222193547326</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="8">
         <f t="shared" si="9"/>
         <v>0.19982491007806175</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="8">
         <f t="shared" si="9"/>
         <v>0.22080376560643816</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="8">
         <f t="shared" si="9"/>
         <v>0.24178718317166459</v>
       </c>
-      <c r="P22" s="10"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f t="shared" ref="C23:Y23" si="10">C15+$Z23-$Z15</f>
         <v>386.95257797034111</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f t="shared" si="10"/>
         <v>386.87473753876986</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f t="shared" si="10"/>
         <v>386.56337581248494</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <f t="shared" si="10"/>
         <v>385.94065235991513</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <f t="shared" si="10"/>
         <v>385.0065671810604</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <f t="shared" si="10"/>
         <v>383.76112027592075</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <f t="shared" si="10"/>
         <v>382.20431164449616</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <f t="shared" si="10"/>
         <v>380.3361412867867</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <f t="shared" si="10"/>
         <v>378.15660920279225</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <f t="shared" si="10"/>
         <v>375.66571539251294</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <f t="shared" si="10"/>
         <v>372.86345985594875</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="5">
         <f t="shared" si="10"/>
         <v>369.74984259309957</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="5">
         <f t="shared" si="10"/>
         <v>366.32486360396553</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="5">
         <f t="shared" si="10"/>
         <v>362.58852288854661</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="5">
         <f t="shared" si="10"/>
         <v>358.5408204468427</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="5">
         <f t="shared" si="10"/>
         <v>354.18175627885387</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="5">
         <f t="shared" si="10"/>
         <v>349.51133038458039</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="5">
         <f t="shared" si="10"/>
         <v>344.5295427640217</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="5">
         <f t="shared" si="10"/>
         <v>339.23639341717762</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="5">
         <f t="shared" si="10"/>
         <v>333.63188234404942</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="5">
         <f t="shared" si="10"/>
         <v>327.75492976042176</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="5">
         <f t="shared" si="10"/>
         <v>300.38322535713576</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="5">
         <f t="shared" si="10"/>
         <v>294.89561565574644</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="Z23" s="5">
         <f>5/9*(Z8-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="5" t="s">
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f t="shared" ref="C24:Y24" si="11">C16+$Z24-$Z16</f>
         <v>386.79073092592597</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f t="shared" si="11"/>
         <v>386.70002333333338</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f t="shared" si="11"/>
         <v>386.4279005555556</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f t="shared" si="11"/>
         <v>385.82491111111113</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <f t="shared" si="11"/>
         <v>384.90393833333337</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <f t="shared" si="11"/>
         <v>383.6683344444445</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <f t="shared" si="11"/>
         <v>382.11942333333337</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <f t="shared" si="11"/>
         <v>380.25786333333338</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <f t="shared" si="11"/>
         <v>378.08402777777781</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <f t="shared" si="11"/>
         <v>375.59814888888894</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <f t="shared" si="11"/>
         <v>372.80038055555565</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="5">
         <f t="shared" si="11"/>
         <v>369.69083055555558</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="5">
         <f t="shared" si="11"/>
         <v>366.26957611111118</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <f t="shared" si="11"/>
         <v>362.53667500000006</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="5">
         <f t="shared" si="11"/>
         <v>358.49217166666671</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="5">
         <f t="shared" si="11"/>
         <v>354.13609944444448</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="5">
         <f t="shared" si="11"/>
         <v>349.46848611111113</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="5">
         <f t="shared" si="11"/>
         <v>344.48935222222224</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="5">
         <f t="shared" si="11"/>
         <v>339.19871555555557</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="5">
         <f t="shared" si="11"/>
         <v>333.59659000000005</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="5">
         <f t="shared" si="11"/>
         <v>327.72090222222226</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="5">
         <f t="shared" si="11"/>
         <v>300.35054500000007</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="5">
         <f t="shared" si="11"/>
         <v>294.87067222222225</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="Z24" s="5">
         <f>5/9*(Z9-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC24" s="22">
+      <c r="AC24" s="20">
         <f t="shared" ref="AC24:AO26" si="12">(C24-C$23)/C$23</f>
         <v>-4.1826066972874647E-4</v>
       </c>
-      <c r="AD24" s="22">
+      <c r="AD24" s="20">
         <f t="shared" si="12"/>
         <v>-4.5160406840722848E-4</v>
       </c>
-      <c r="AE24" s="22">
+      <c r="AE24" s="20">
         <f t="shared" si="12"/>
         <v>-3.5046066287215021E-4</v>
       </c>
-      <c r="AF24" s="22">
+      <c r="AF24" s="20">
         <f t="shared" si="12"/>
         <v>-2.9989390362553239E-4</v>
       </c>
-      <c r="AG24" s="22">
+      <c r="AG24" s="20">
         <f t="shared" si="12"/>
         <v>-2.665638887109387E-4</v>
       </c>
-      <c r="AH24" s="22">
+      <c r="AH24" s="20">
         <f t="shared" si="12"/>
         <v>-2.4178017671393258E-4</v>
       </c>
-      <c r="AI24" s="22">
+      <c r="AI24" s="20">
         <f t="shared" si="12"/>
         <v>-2.2210191925240157E-4</v>
       </c>
-      <c r="AJ24" s="22">
+      <c r="AJ24" s="20">
         <f t="shared" si="12"/>
         <v>-2.0581255619959353E-4</v>
       </c>
-      <c r="AK24" s="22">
+      <c r="AK24" s="20">
         <f t="shared" si="12"/>
         <v>-1.9193483135852106E-4</v>
       </c>
-      <c r="AL24" s="22">
+      <c r="AL24" s="20">
         <f t="shared" si="12"/>
         <v>-1.7985805160153302E-4</v>
       </c>
-      <c r="AM24" s="22">
+      <c r="AM24" s="20">
         <f t="shared" si="12"/>
         <v>-1.6917533409540551E-4</v>
       </c>
-      <c r="AN24" s="22">
+      <c r="AN24" s="20">
         <f t="shared" si="12"/>
         <v>-1.59599899029396E-4</v>
       </c>
-      <c r="AO24" s="22">
+      <c r="AO24" s="20">
         <f t="shared" si="12"/>
         <v>-1.509247620006455E-4</v>
       </c>
@@ -16749,157 +16761,157 @@
       <c r="A25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:Y25" si="13">C17+$Z25-$Z17</f>
         <v>386.76497370370373</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <f t="shared" si="13"/>
         <v>386.67429833333335</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f t="shared" si="13"/>
         <v>386.40227222222222</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f t="shared" si="13"/>
         <v>385.79949555555555</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <f t="shared" si="13"/>
         <v>384.87884666666667</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <f t="shared" si="13"/>
         <v>383.64367333333337</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <f t="shared" si="13"/>
         <v>382.09529777777777</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <f t="shared" si="13"/>
         <v>380.23437277777782</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <f t="shared" si="13"/>
         <v>378.06126888888889</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <f t="shared" si="13"/>
         <v>375.57621277777781</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <f t="shared" si="13"/>
         <v>372.77935388888892</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="5">
         <f t="shared" si="13"/>
         <v>369.67079333333334</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="5">
         <f t="shared" si="13"/>
         <v>366.25060277777777</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="5">
         <f t="shared" si="13"/>
         <v>362.51883277777779</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="5">
         <f t="shared" si="13"/>
         <v>358.47552055555559</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="5">
         <f t="shared" si="13"/>
         <v>354.1206922222222</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="5">
         <f t="shared" si="13"/>
         <v>349.45436666666671</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="5">
         <f t="shared" si="13"/>
         <v>344.47655833333334</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="5">
         <f t="shared" si="13"/>
         <v>339.187275</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="5">
         <f t="shared" si="13"/>
         <v>333.58652388888891</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="5">
         <f t="shared" si="13"/>
         <v>327.71221277777778</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="5">
         <f t="shared" si="13"/>
         <v>300.34810888888887</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="5">
         <f t="shared" si="13"/>
         <v>294.86951944444445</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="Z25" s="5">
         <f>5/9*(Z10-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AB25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25" s="20">
         <f t="shared" si="12"/>
         <v>-4.8482495612617044E-4</v>
       </c>
-      <c r="AD25" s="22">
+      <c r="AD25" s="20">
         <f t="shared" si="12"/>
         <v>-5.1809845923688218E-4</v>
       </c>
-      <c r="AE25" s="22">
+      <c r="AE25" s="20">
         <f t="shared" si="12"/>
         <v>-4.1675854554017752E-4</v>
       </c>
-      <c r="AF25" s="22">
+      <c r="AF25" s="20">
         <f t="shared" si="12"/>
         <v>-3.6574743680524246E-4</v>
       </c>
-      <c r="AG25" s="22">
+      <c r="AG25" s="20">
         <f t="shared" si="12"/>
         <v>-3.317359372045859E-4</v>
       </c>
-      <c r="AH25" s="22">
+      <c r="AH25" s="20">
         <f t="shared" si="12"/>
         <v>-3.0604179626882161E-4</v>
       </c>
-      <c r="AI25" s="22">
+      <c r="AI25" s="20">
         <f t="shared" si="12"/>
         <v>-2.8522406314396406E-4</v>
       </c>
-      <c r="AJ25" s="22">
+      <c r="AJ25" s="20">
         <f t="shared" si="12"/>
         <v>-2.6757517354139787E-4</v>
       </c>
-      <c r="AK25" s="22">
+      <c r="AK25" s="20">
         <f t="shared" si="12"/>
         <v>-2.5211859738311819E-4</v>
       </c>
-      <c r="AL25" s="22">
+      <c r="AL25" s="20">
         <f t="shared" si="12"/>
         <v>-2.3825068689488493E-4</v>
       </c>
-      <c r="AM25" s="22">
+      <c r="AM25" s="20">
         <f t="shared" si="12"/>
         <v>-2.2556773756355825E-4</v>
       </c>
-      <c r="AN25" s="22">
+      <c r="AN25" s="20">
         <f t="shared" si="12"/>
         <v>-2.1379119247720186E-4</v>
       </c>
-      <c r="AO25" s="22">
+      <c r="AO25" s="20">
         <f t="shared" si="12"/>
         <v>-2.0271849815806401E-4</v>
       </c>
@@ -16908,157 +16920,157 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <f t="shared" ref="C26:Y26" si="14">C17+$Z26-$Z17</f>
         <v>386.76497370370373</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <f t="shared" si="14"/>
         <v>386.67429833333335</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <f t="shared" si="14"/>
         <v>386.40227222222222</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <f t="shared" si="14"/>
         <v>385.79949555555555</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <f t="shared" si="14"/>
         <v>384.87884666666667</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f t="shared" si="14"/>
         <v>383.64367333333337</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <f t="shared" si="14"/>
         <v>382.09529777777777</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <f t="shared" si="14"/>
         <v>380.23437277777782</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <f t="shared" si="14"/>
         <v>378.06126888888889</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <f t="shared" si="14"/>
         <v>375.57621277777781</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <f t="shared" si="14"/>
         <v>372.77935388888892</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="5">
         <f t="shared" si="14"/>
         <v>369.67079333333334</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="5">
         <f t="shared" si="14"/>
         <v>366.25060277777777</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="5">
         <f t="shared" si="14"/>
         <v>362.51883277777779</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="5">
         <f t="shared" si="14"/>
         <v>358.47552055555559</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="5">
         <f t="shared" si="14"/>
         <v>354.1206922222222</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="5">
         <f t="shared" si="14"/>
         <v>349.45436666666671</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="5">
         <f t="shared" si="14"/>
         <v>344.47655833333334</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="5">
         <f t="shared" si="14"/>
         <v>339.187275</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="5">
         <f t="shared" si="14"/>
         <v>333.58652388888891</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="5">
         <f t="shared" si="14"/>
         <v>327.71221277777778</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="5">
         <f t="shared" si="14"/>
         <v>300.34810888888887</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="5">
         <f t="shared" si="14"/>
         <v>294.86951944444445</v>
       </c>
-      <c r="Z26" s="7">
+      <c r="Z26" s="5">
         <f>5/9*(Z11-32)</f>
         <v>290.93455198094114</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AB26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AC26" s="20">
         <f t="shared" si="12"/>
         <v>-4.8482495612617044E-4</v>
       </c>
-      <c r="AD26" s="22">
+      <c r="AD26" s="20">
         <f t="shared" si="12"/>
         <v>-5.1809845923688218E-4</v>
       </c>
-      <c r="AE26" s="22">
+      <c r="AE26" s="20">
         <f t="shared" si="12"/>
         <v>-4.1675854554017752E-4</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AF26" s="20">
         <f t="shared" si="12"/>
         <v>-3.6574743680524246E-4</v>
       </c>
-      <c r="AG26" s="22">
+      <c r="AG26" s="20">
         <f t="shared" si="12"/>
         <v>-3.317359372045859E-4</v>
       </c>
-      <c r="AH26" s="22">
+      <c r="AH26" s="20">
         <f t="shared" si="12"/>
         <v>-3.0604179626882161E-4</v>
       </c>
-      <c r="AI26" s="22">
+      <c r="AI26" s="20">
         <f t="shared" si="12"/>
         <v>-2.8522406314396406E-4</v>
       </c>
-      <c r="AJ26" s="22">
+      <c r="AJ26" s="20">
         <f t="shared" si="12"/>
         <v>-2.6757517354139787E-4</v>
       </c>
-      <c r="AK26" s="22">
+      <c r="AK26" s="20">
         <f t="shared" si="12"/>
         <v>-2.5211859738311819E-4</v>
       </c>
-      <c r="AL26" s="22">
+      <c r="AL26" s="20">
         <f t="shared" si="12"/>
         <v>-2.3825068689488493E-4</v>
       </c>
-      <c r="AM26" s="22">
+      <c r="AM26" s="20">
         <f t="shared" si="12"/>
         <v>-2.2556773756355825E-4</v>
       </c>
-      <c r="AN26" s="22">
+      <c r="AN26" s="20">
         <f t="shared" si="12"/>
         <v>-2.1379119247720186E-4</v>
       </c>
-      <c r="AO26" s="22">
+      <c r="AO26" s="20">
         <f t="shared" si="12"/>
         <v>-2.0271849815806401E-4</v>
       </c>
@@ -17067,150 +17079,150 @@
       <c r="A27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="Q28" s="3"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
     </row>
     <row r="30" spans="1:41">
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>4.8729883837070098E-4</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>1.0896333279535699E-3</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>1.7569809482196001E-3</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>2.4364941918535001E-3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>3.1202350028443101E-3</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>3.80592559445446E-3</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <v>4.4926733043458601E-3</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <v>5.1800577062567701E-3</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <v>5.86785505037642E-3</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="10">
         <v>6.5559353700151502E-3</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="10">
         <v>7.2442180317072898E-3</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="10">
         <v>7.93265036652443E-3</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="10">
         <v>8.6211965187923296E-3</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="10">
         <v>9.3098312350581094E-3</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="10">
         <v>9.9985362161868502E-3</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="10">
         <v>1.0687297878278001E-2</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="10">
         <v>1.1376105926159501E-2</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="10">
         <v>1.2064952415110001E-2</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="10">
         <v>1.2753831116415299E-2</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="10">
         <v>1.3438320209973801E-2</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="10">
         <v>1.3713910761154901E-2</v>
       </c>
-      <c r="W30" s="12">
+      <c r="W30" s="10">
         <v>1.55839895013123E-2</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" s="21">
+      <c r="A32" s="19">
         <v>728.06004199999995</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>727.57022099999995</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>726.48483999999996</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>724.827089</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>722.60300199999995</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>719.81496200000004</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>716.46415400000001</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>712.55124999999998</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>708.07666800000004</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>703.04068500000005</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>697.44349499999998</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>691.28523700000005</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>684.56601499999999</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="5">
         <v>677.28590899999995</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="5">
         <v>669.44497899999999</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="5">
         <v>661.04327499999999</v>
       </c>
       <c r="Q32">
@@ -17233,7 +17245,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>728.01373699999999</v>
       </c>
       <c r="B33">
@@ -17301,7 +17313,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="21">
+      <c r="A34" s="19">
         <v>728.07001400000001</v>
       </c>
       <c r="B34">
@@ -17548,96 +17560,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:22">
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="M7" s="28" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="M7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="5:22">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="26" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="5:22">
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>'SS Rod Radial Profile_5'!D14</f>
         <v>6.4362430572002152E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>'SS Rod Radial Profile_10'!C15</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f>'SS Rod Radial Profile_5'!C16</f>
         <v>90.835615000000061</v>
       </c>
@@ -17653,22 +17669,22 @@
         <f>'SS Rod Radial Profile_5'!C19</f>
         <v>90.076029814814746</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>5</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="25">
         <f t="shared" ref="M9:P11" si="0">ABS(G9-$F9)</f>
         <v>1.2213473145945954</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="25">
         <f t="shared" si="0"/>
         <v>1.2442128701502781</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="25">
         <f t="shared" si="0"/>
         <v>1.2166513886687227</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <f t="shared" si="0"/>
         <v>1.9809324997799109</v>
       </c>
@@ -17694,15 +17710,15 @@
       </c>
     </row>
     <row r="10" spans="5:22">
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>'SS Rod Radial Profile_10'!D14</f>
         <v>3.0487467113053651E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <f>F9</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f>'SS Rod Radial Profile_10'!C16</f>
         <v>91.641218333333356</v>
       </c>
@@ -17722,26 +17738,26 @@
         <f>E9/E10</f>
         <v>2.1111111111111112</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>10</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="25">
         <f t="shared" si="0"/>
         <v>0.41574398126130063</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="25">
         <f t="shared" si="0"/>
         <v>0.43998824052054886</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="25">
         <f t="shared" si="0"/>
         <v>0.410569536816908</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="25">
         <f t="shared" si="0"/>
         <v>0.7167739812613263</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="1">
         <f>LN(E10)</f>
         <v>-3.4904395941433073</v>
       </c>
@@ -17763,15 +17779,15 @@
       </c>
     </row>
     <row r="11" spans="5:22">
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>'SS Rod Radial Profile_20'!D14</f>
         <v>1.4852868593538963E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <f>F10</f>
         <v>92.056962314594657</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <f>'SS Rod Radial Profile_20'!C16</f>
         <v>91.920058703703702</v>
       </c>
@@ -17791,26 +17807,26 @@
         <f>E10/E11</f>
         <v>2.0526315789473677</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>20</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="25">
         <f t="shared" si="0"/>
         <v>0.13690361089095404</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="25">
         <f t="shared" si="0"/>
         <v>0.16150805533537493</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="25">
         <f t="shared" si="0"/>
         <v>0.1316049071872385</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="25">
         <f t="shared" si="0"/>
         <v>0.18749064792791614</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="1">
         <f>LN(E11)</f>
         <v>-4.2095622611065133</v>
       </c>
@@ -17832,45 +17848,45 @@
       </c>
     </row>
     <row r="12" spans="5:22">
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="5:22">
-      <c r="L13" s="25"/>
-      <c r="M13" s="28" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="5:22">
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H14" t="str">
         <f>E8</f>
         <v>delta_R_1 [cm]</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="26" t="s">
+      <c r="L14" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="5:22">
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <f>1/5</f>
         <v>0.2</v>
       </c>
@@ -17878,31 +17894,31 @@
         <f>E9</f>
         <v>6.4362430572002152E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <v>5</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="26">
         <f t="shared" ref="M15:P17" si="2">ABS(G9-$F9)/$F9</f>
         <v>1.3267299766211858E-2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="26">
         <f t="shared" si="2"/>
         <v>1.3515684624681792E-2</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="26">
         <f t="shared" si="2"/>
         <v>1.3216288676905816E-2</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="26">
         <f t="shared" si="2"/>
         <v>2.1518551665981434E-2</v>
       </c>
     </row>
     <row r="16" spans="5:22">
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <f>1/10</f>
         <v>0.1</v>
       </c>
@@ -17910,32 +17926,32 @@
         <f>E10</f>
         <v>3.0487467113053651E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>10</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>10</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="26">
         <f t="shared" si="2"/>
         <v>4.5161601122633262E-3</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="26">
         <f t="shared" si="2"/>
         <v>4.7795216076860856E-3</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="26">
         <f t="shared" si="2"/>
         <v>4.4599509531265142E-3</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="26">
         <f t="shared" si="2"/>
         <v>7.7862006657555046E-3</v>
       </c>
     </row>
     <row r="17" spans="4:22">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <f>1/20</f>
         <v>0.05</v>
       </c>
@@ -17943,74 +17959,74 @@
         <f>E11</f>
         <v>1.4852868593538963E-2</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
         <v>20</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <v>20</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="26">
         <f t="shared" si="2"/>
         <v>1.4871619424406037E-3</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="26">
         <f t="shared" si="2"/>
         <v>1.7544360716948136E-3</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="26">
         <f t="shared" si="2"/>
         <v>1.4296029749221253E-3</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="26">
         <f t="shared" si="2"/>
         <v>2.036680802992252E-3</v>
       </c>
     </row>
     <row r="18" spans="4:22">
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="4:22">
-      <c r="F19" s="3"/>
-      <c r="G19" s="7">
+      <c r="F19" s="1"/>
+      <c r="G19" s="5">
         <f>SLOPE(H15:H17,G15:G17)</f>
         <v>0.33130458767543036</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="24" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="4:22">
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" t="s">
         <v>132</v>
       </c>
@@ -18048,58 +18064,62 @@
       </c>
     </row>
     <row r="21" spans="4:22">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0.02</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="4:22">
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="1" t="str">
         <f>E8</f>
         <v>delta_R_1 [cm]</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="4:22">
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <f>E9</f>
         <v>6.4362430572002152E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0.69399999999999995</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>5.5510000000000002</v>
       </c>
       <c r="G23">
         <v>5.6719999999999997</v>
       </c>
+      <c r="I23">
+        <f>F23/F23</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="4:22">
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <f>E10</f>
         <v>3.0487467113053651E-2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>1.022</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>7.8220000000000001</v>
       </c>
       <c r="G24">
@@ -18107,14 +18127,14 @@
       </c>
     </row>
     <row r="25" spans="4:22">
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f>E11</f>
         <v>1.4852868593538963E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>1.796</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>14.374000000000001</v>
       </c>
       <c r="G25">
@@ -18122,43 +18142,43 @@
       </c>
     </row>
     <row r="27" spans="4:22">
-      <c r="E27" s="7">
-        <f t="shared" ref="E27:G29" si="3">E23/E$23</f>
+      <c r="E27" s="5">
+        <f>E23/E$23</f>
         <v>1</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="3"/>
+      <c r="F27" s="5">
+        <f>F23/F$23</f>
         <v>1</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" si="3"/>
+      <c r="G27" s="5">
+        <f t="shared" ref="E27:G29" si="3">G23/G$23</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:22">
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
         <v>1.4726224783861672</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>1.4091154746892451</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>1.0664668547249649</v>
       </c>
     </row>
     <row r="29" spans="4:22">
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>2.5878962536023056</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="3"/>
+      <c r="F29" s="5">
+        <f>F25/F$23</f>
         <v>2.5894433435417041</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>1.1724259520451341</v>
       </c>
@@ -18170,7 +18190,6 @@
     <mergeCell ref="M13:P13"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -18237,7 +18256,7 @@
     </row>
     <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8">
         <v>1.0002449840240701E-3</v>
@@ -18278,7 +18297,7 @@
     </row>
     <row r="9" spans="5:18">
       <c r="E9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -18322,7 +18341,7 @@
     </row>
     <row r="10" spans="5:18">
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10">
         <v>6.2862642371365604E-6</v>
@@ -18395,7 +18414,7 @@
     </row>
     <row r="12" spans="5:18">
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:O12" si="0">PI()*(G9^2-F9^2)</f>
@@ -18448,7 +18467,7 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13">
         <f>F12</f>
@@ -18523,12 +18542,12 @@
   <sheetData>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="3:15">
       <c r="D7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
         <v>117</v>
@@ -18536,12 +18555,12 @@
     </row>
     <row r="8" spans="3:15">
       <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="12">
+        <v>141</v>
+      </c>
+      <c r="D8" s="10">
         <v>5.8147944193513099E-5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f>Sheet6!O12</f>
         <v>5.8147944259961113E-5</v>
       </c>
@@ -18557,7 +18576,7 @@
     </row>
     <row r="10" spans="3:15">
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <f>Problem_Setup!A25</f>
@@ -18566,7 +18585,7 @@
     </row>
     <row r="11" spans="3:15">
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <f>E10*E9*E8</f>
@@ -18581,7 +18600,7 @@
     </row>
     <row r="13" spans="3:15">
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13">
         <f>Sheet6!F12</f>
@@ -18634,7 +18653,7 @@
     </row>
     <row r="14" spans="3:15">
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <f>D13</f>
@@ -18687,7 +18706,7 @@
     </row>
     <row r="15" spans="3:15">
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15">
         <f>D13*dz/t_ft_m*Problem_Setup!$A$25</f>
@@ -18738,7 +18757,7 @@
     </row>
     <row r="16" spans="3:15">
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16">
         <f>D14*dz/t_ft_m*Problem_Setup!$A$25</f>
@@ -18823,7 +18842,7 @@
       <c r="L19">
         <v>0.130617075775743</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <v>7.1071055936801103E-2</v>
       </c>
       <c r="N19">
@@ -18833,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R19" t="e">
         <v>#REF!</v>
@@ -18850,7 +18869,7 @@
         <v>0.72799811351480304</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -18870,7 +18889,7 @@
         <v>0.72799811351480304</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R21" t="e">
         <f>Sheet8!R19/Sheet8!R20</f>
@@ -18927,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="4:18">
@@ -18980,7 +18999,7 @@
         <v>0.69342300522122802</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:18">
@@ -19033,7 +19052,7 @@
         <v>0.69342300522122802</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="4:18">
@@ -19077,19 +19096,19 @@
         <f t="shared" si="4"/>
         <v>0.99999999999992595</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s">
         <v>150</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="4:18">
-      <c r="D26" s="3" t="s">
-        <v>150</v>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:O26" si="5">E20/E23</f>
@@ -19136,7 +19155,7 @@
         <v>1.0498614958448693</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="4:18">
@@ -19189,7 +19208,7 @@
         <v>1.0498614958448693</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
